--- a/Organización/Procesos/Soporte Organizacional/3. Medición, Monitoreo y Control/Medición/IWM_Plan_Metricas.xlsx
+++ b/Organización/Procesos/Soporte Organizacional/3. Medición, Monitoreo y Control/Medición/IWM_Plan_Metricas.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gus\Documents\IWM\CMMI\GitHUB\Organización\Procesos\Soporte Organizacional\3. Medición, Monitoreo y Control\Medición\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="11760" windowHeight="5100" tabRatio="727" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="11760" windowHeight="5100" tabRatio="727" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Objetivos de Medición" sheetId="2" r:id="rId1"/>
@@ -14,14 +19,17 @@
     <sheet name="Desviaciones al producto " sheetId="10" r:id="rId5"/>
     <sheet name="Desviaciones físicas" sheetId="11" r:id="rId6"/>
     <sheet name="Desviaciones funcionales" sheetId="12" r:id="rId7"/>
-    <sheet name="tabla pan de metricas" sheetId="1" state="hidden" r:id="rId8"/>
+    <sheet name="Defectos funcionales del sistem" sheetId="13" r:id="rId8"/>
+    <sheet name="Mejora de procesos" sheetId="14" r:id="rId9"/>
+    <sheet name="Desviación de capacitaciones " sheetId="15" r:id="rId10"/>
+    <sheet name="tabla pan de metricas" sheetId="1" state="hidden" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="165">
   <si>
     <t>DURACION REAL</t>
   </si>
@@ -723,6 +731,99 @@
   <si>
     <t>La funcionalidad es estable, no se requieren acciones correctivas</t>
   </si>
+  <si>
+    <t>Identificar el número de defectos funcionales del sistema y el promedio UCP por defecto.</t>
+  </si>
+  <si>
+    <t>Defectos funcionales del sistema</t>
+  </si>
+  <si>
+    <t>¿Cuántos defectos tuvo el proyecto? De estos defectos ¿Qué impacto tienen? (Mayor, menor, etc.)</t>
+  </si>
+  <si>
+    <t>Tickets realizados en mantis con los errores clasificados del proyecto</t>
+  </si>
+  <si>
+    <t>Errores que aplican</t>
+  </si>
+  <si>
+    <t>Clasificación del error</t>
+  </si>
+  <si>
+    <t>Suma de todos los errores por clasificación</t>
+  </si>
+  <si>
+    <t>Mediante la herramienta Mantis, que nos ayuda a monitorear los errores que surgen del sistmea</t>
+  </si>
+  <si>
+    <t>Semanal y al final del proyecto</t>
+  </si>
+  <si>
+    <t>Taster</t>
+  </si>
+  <si>
+    <t>Reuniones de monitoreo con dirección</t>
+  </si>
+  <si>
+    <t>Medicion de procesos</t>
+  </si>
+  <si>
+    <t>Conocer qué procesos tiene el mayor número de mejoras implementadas y el número de total de mejoras implementadas.</t>
+  </si>
+  <si>
+    <t>Revisar qué proceso tiene mayor y menor número de propuestas de mejora, de igual forma revisar las causas de porque se rechazó una mejora y analizar qué tan significativas fue el impacto de las mejoras.</t>
+  </si>
+  <si>
+    <t>Guía de análisis</t>
+  </si>
+  <si>
+    <t>Solicitudes (aceptadas, rechazadas)</t>
+  </si>
+  <si>
+    <t>Suma de solicitudes rechazadas y aceptadas</t>
+  </si>
+  <si>
+    <t>Lider de mejora</t>
+  </si>
+  <si>
+    <t>Cuatrimestral</t>
+  </si>
+  <si>
+    <t>Cada 6 meses</t>
+  </si>
+  <si>
+    <t>Reunión con dirección</t>
+  </si>
+  <si>
+    <t>Desviación de capacitaciones y entrenamientos</t>
+  </si>
+  <si>
+    <t>Conocer el número de capacitaciones realizadas contras las planeadas.</t>
+  </si>
+  <si>
+    <t>Evaluaciones</t>
+  </si>
+  <si>
+    <t>Evaluacion de la capacitación dada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación de efectividad </t>
+  </si>
+  <si>
+    <t>Se saca el resultado de cada efectividad y se grafica</t>
+  </si>
+  <si>
+    <t>Dentro de nuestro repositorio Organización\Mejora\Solicitudes se encuentran todas las solicitudes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparar las evaluaciones realizadas por los capacitados y las evaluaciones realizadas por direccion. También se sacara un porcentaje de cuantas capacitaciones se realizaron tras las planeadas. </t>
+  </si>
+  <si>
+    <t>Dentro de nuestro repositorio Organización\Capacitacion enconramos nuestro plan de capacitacion para comparar las capacitaciones realizadas con las planeadas. Aparte en la carpeta de Evaluaciones, tenemos las evaluaciones de las capacitaciones y las evaluaciones de efectividad.</t>
+  </si>
+  <si>
+    <t>Lider de mejora, Lider de proyecto</t>
+  </si>
 </sst>
 </file>
 
@@ -731,7 +832,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,13 +871,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -836,8 +930,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222A35"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -858,12 +980,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -871,6 +987,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4B5A53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF63776D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,14 +1446,14 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1342,84 +1476,45 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1432,68 +1527,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1502,67 +1592,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1611,8 +1659,113 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1626,9 +1779,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF63776D"/>
+      <color rgb="FF4B5A53"/>
+      <color rgb="FF4BB050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1670,6 +1833,59 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2352675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2352675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="6 Imagen" descr="Descripción: kire01_logo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5400675" y="47625"/>
+          <a:ext cx="2381250" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1894,50 +2110,163 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2352675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2119312</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2352675</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3643311</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>4196749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="6 Imagen" descr="Descripción: kire01_logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2405062" y="1535907"/>
+          <a:ext cx="6786562" cy="4101498"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3221182</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>530679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4995213</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4275625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="12055"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3506932" y="2095500"/>
+          <a:ext cx="7026388" cy="3744946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>489858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>72821</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3508906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="353785" y="1836965"/>
+          <a:ext cx="5257143" cy="3019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>585106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5167369</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3556535</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="5400675" y="47625"/>
-          <a:ext cx="2381250" cy="1066800"/>
+          <a:off x="5715000" y="1932213"/>
+          <a:ext cx="4990476" cy="2971429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1988,7 +2317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2023,7 +2352,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2234,8 +2563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A9:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,174 +2574,168 @@
   </cols>
   <sheetData>
     <row r="9" spans="1:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="101" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="12" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="13"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="93" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="12" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="96" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="54"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="13"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="99"/>
     </row>
     <row r="16" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="54"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="14" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="93" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="54"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="14" t="s">
+      <c r="B19" s="97"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="100" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="54"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="14" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="93" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="54"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="14" t="s">
+      <c r="B23" s="97"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="100" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
@@ -2426,9 +2749,652 @@
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D33" sqref="D32:D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="78.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="86.85546875" style="35" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="35"/>
+    <col min="6" max="6" width="39.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="111" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="112" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="81"/>
+    </row>
+    <row r="6" spans="2:9" ht="337.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="83"/>
+      <c r="H7" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="83"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="86"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="114" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="114"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="86"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="83"/>
+      <c r="H20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="111" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="89"/>
+      <c r="D23" s="90"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B19:C19" r:id="rId1" display="C:\Repositorio_IWM\Organización\Procesos\Soporte Organizacional\3. Medición, Monitoreo y Control\Medición"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="6" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="75"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="76"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="61"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="65"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="65"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="65"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="68"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="65"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="65"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="65"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="65"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="68"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A22:D27"/>
+    <mergeCell ref="A28:D32"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="A33:D38"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A16:D21"/>
+    <mergeCell ref="A11:D15"/>
+  </mergeCells>
+  <pageMargins left="0.9055118110236221" right="1.1023622047244095" top="0.35433070866141736" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2436,8 +3402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" activeCellId="5" sqref="B22:C22 B18:C18 B16:C16 B13:C13 B8:C8 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,190 +3417,185 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="82" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="74"/>
+      <c r="C5" s="81"/>
     </row>
     <row r="6" spans="2:3" ht="337.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="83"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="84" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="79"/>
+      <c r="C10" s="46"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="80"/>
+      <c r="C11" s="47"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="81"/>
+      <c r="C12" s="102"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="110"/>
     </row>
     <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="67"/>
-    </row>
-    <row r="15" spans="2:3" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="60" t="s">
+      <c r="C14" s="53"/>
+    </row>
+    <row r="15" spans="2:3" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="49"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="108" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="69"/>
-    </row>
-    <row r="19" spans="2:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="62" t="s">
+      <c r="C18" s="106"/>
+    </row>
+    <row r="19" spans="2:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="51"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="71"/>
+      <c r="C20" s="55"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="72"/>
+      <c r="C21" s="103"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="84" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="59"/>
+      <c r="C24" s="104"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="30" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="33" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="28" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B19:C19"/>
@@ -2643,6 +3604,11 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B15" r:id="rId1"/>
@@ -2659,236 +3625,231 @@
   <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C2" activeCellId="9" sqref="B23:C23 B21 C21 B17:C17 C15 B15 B13:C13 C8 B8 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="78.85546875" style="31" customWidth="1"/>
-    <col min="3" max="3" width="86.85546875" style="31" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="31"/>
-    <col min="6" max="6" width="39.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="31"/>
+    <col min="1" max="1" width="4.28515625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="78.85546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="86.85546875" style="20" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="20"/>
+    <col min="6" max="6" width="39.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="82" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="74"/>
+      <c r="C5" s="81"/>
     </row>
     <row r="6" spans="2:9" ht="337.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="83"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
+      <c r="C10" s="46"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="C11" s="47"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="C12" s="83"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
+      <c r="C13" s="86"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="C14" s="56"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="C17" s="86"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-    </row>
-    <row r="19" spans="2:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="86" t="s">
+      <c r="C18" s="51"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
+      <c r="C19" s="58"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="77"/>
+      <c r="C20" s="83"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="84" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="84"/>
+      <c r="C23" s="89"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="30" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="33" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="28" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
@@ -2896,6 +3857,11 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B19" r:id="rId1"/>
@@ -2909,305 +3875,310 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C12"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C2" activeCellId="9" sqref="B22 B24:C24 C22 B18:C18 C16 B16 B14:C14 B8 C8 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="78.85546875" style="31" customWidth="1"/>
-    <col min="3" max="3" width="86.85546875" style="31" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="31"/>
-    <col min="6" max="6" width="39.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="31"/>
+    <col min="1" max="1" width="4.28515625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="78.85546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="86.85546875" style="20" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="20"/>
+    <col min="6" max="6" width="39.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="82" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="74"/>
+      <c r="C5" s="81"/>
     </row>
     <row r="6" spans="2:9" ht="337.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="H7" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="31" t="s">
+      <c r="C7" s="83"/>
+      <c r="H7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="32" t="s">
+      <c r="G8" s="22"/>
+      <c r="H8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="32" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
+      <c r="C10" s="46"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="C11" s="46"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="32" t="s">
+      <c r="C12" s="47"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="32" t="s">
+      <c r="C13" s="83"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="32" t="s">
+      <c r="C14" s="86"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="32" t="s">
+      <c r="C15" s="59"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="32" t="s">
+      <c r="G16" s="22"/>
+      <c r="H16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="32" t="s">
+      <c r="G17" s="22"/>
+      <c r="H17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="62" t="s">
+      <c r="C18" s="86"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
+      <c r="C19" s="51"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="87"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="32" t="s">
+      <c r="C20" s="58"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="H21" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="32" t="s">
+      <c r="C21" s="83"/>
+      <c r="H21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="31" t="s">
+      <c r="H22" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="84"/>
+      <c r="C24" s="89"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="30" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="33" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="28" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N32" s="31">
+      <c r="N32" s="20">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B14:C14"/>
@@ -3215,11 +4186,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B20" r:id="rId1"/>
@@ -3234,299 +4200,304 @@
   <dimension ref="B2:I27"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" activeCellId="7" sqref="B14:C14 B16 C16 B18:C18 B22:C22 B24:C24 B8:C8 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="78.85546875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="86.85546875" style="36" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="36"/>
-    <col min="6" max="6" width="39.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="36"/>
+    <col min="1" max="1" width="4.28515625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="78.85546875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="86.85546875" style="24" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="24"/>
+    <col min="6" max="6" width="39.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="24"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="82" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="74"/>
+      <c r="C5" s="81"/>
     </row>
     <row r="6" spans="2:9" ht="337.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="H7" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="36" t="s">
+      <c r="C7" s="83"/>
+      <c r="H7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="32" t="s">
+      <c r="G8" s="22"/>
+      <c r="H8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="32" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="C10" s="46"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="C11" s="46"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="32" t="s">
+      <c r="C12" s="47"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="32" t="s">
+      <c r="C13" s="83"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="32" t="s">
+      <c r="C14" s="86"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="32" t="s">
+      <c r="C15" s="59"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="32" t="s">
+      <c r="G16" s="22"/>
+      <c r="H16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="32" t="s">
+      <c r="G17" s="22"/>
+      <c r="H17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="32" t="s">
+      <c r="C18" s="86"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="86" t="s">
+      <c r="C19" s="51"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="87"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="C20" s="58"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="H21" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="32" t="s">
+      <c r="C21" s="83"/>
+      <c r="H21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="36" t="s">
+      <c r="H22" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="84"/>
+      <c r="C24" s="89"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="33" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="28" t="s">
         <v>106</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B14:C14"/>
@@ -3534,11 +4505,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B20" r:id="rId1"/>
@@ -3552,305 +4518,300 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B21" activeCellId="4" sqref="B5:C5 B2:B4 B7:C7 B13:C13 B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="51" customWidth="1"/>
-    <col min="2" max="2" width="78.85546875" style="51" customWidth="1"/>
-    <col min="3" max="3" width="86.85546875" style="51" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="51"/>
-    <col min="6" max="6" width="39.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="51"/>
+    <col min="1" max="1" width="4.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="78.85546875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="86.85546875" style="34" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="34"/>
+    <col min="6" max="6" width="39.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="34"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="82" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="74"/>
+      <c r="C5" s="81"/>
     </row>
     <row r="6" spans="2:9" ht="337.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="H7" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="51" t="s">
+      <c r="C7" s="83"/>
+      <c r="H7" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="32" t="s">
+      <c r="G8" s="22"/>
+      <c r="H8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="32" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="32" t="s">
+      <c r="C10" s="46"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="C11" s="46"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="32" t="s">
+      <c r="C12" s="47"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="32" t="s">
+      <c r="C13" s="83"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="32" t="s">
+      <c r="C14" s="86"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="32" t="s">
+      <c r="C15" s="59"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="32" t="s">
+      <c r="G16" s="22"/>
+      <c r="H16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="32" t="s">
+      <c r="G17" s="22"/>
+      <c r="H17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="32" t="s">
+      <c r="C18" s="86"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="32" t="s">
+      <c r="C19" s="51"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="C20" s="60"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="H21" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="32" t="s">
+      <c r="C21" s="83"/>
+      <c r="H21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="51" t="s">
+      <c r="H22" s="34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="84"/>
+      <c r="C24" s="89"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="33" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="28" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -3858,6 +4819,11 @@
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B20:C20" r:id="rId1" display="C:\Repositorio_IWM\Organización\Procesos\Soporte Organizacional\3. Medición, Monitoreo y Control\Medición"/>
@@ -3871,305 +4837,301 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="51" customWidth="1"/>
-    <col min="2" max="2" width="78.85546875" style="51" customWidth="1"/>
-    <col min="3" max="3" width="86.85546875" style="51" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="51"/>
-    <col min="6" max="6" width="39.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="51"/>
+    <col min="1" max="1" width="4.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="78.85546875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="86.85546875" style="34" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="34"/>
+    <col min="6" max="6" width="39.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="34"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="82" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="74"/>
+      <c r="C5" s="81"/>
     </row>
     <row r="6" spans="2:9" ht="337.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="H7" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="51" t="s">
+      <c r="C7" s="83"/>
+      <c r="H7" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="32" t="s">
+      <c r="G8" s="22"/>
+      <c r="H8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="32" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="32" t="s">
+      <c r="C10" s="46"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="C11" s="46"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="32" t="s">
+      <c r="C12" s="47"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="32" t="s">
+      <c r="C13" s="83"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="32" t="s">
+      <c r="C14" s="86"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="32" t="s">
+      <c r="C15" s="59"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="32" t="s">
+      <c r="G16" s="22"/>
+      <c r="H16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="32" t="s">
+      <c r="G17" s="22"/>
+      <c r="H17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="32" t="s">
+      <c r="C18" s="86"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="32" t="s">
+      <c r="C19" s="51"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="C20" s="60"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="H21" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="32" t="s">
+      <c r="C21" s="83"/>
+      <c r="H21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="51" t="s">
+      <c r="H22" s="34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="84"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="30" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="33" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="28" t="s">
         <v>106</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -4177,340 +5139,628 @@
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B20:C20" r:id="rId1" display="C:\Repositorio_IWM\Organización\Procesos\Soporte Organizacional\3. Medición, Monitoreo y Control\Medición"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F38"/>
+  <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="6" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="78.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="86.85546875" style="35" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="35"/>
+    <col min="6" max="6" width="39.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="103" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="103"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="89"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="89"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="89"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="89"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="89"/>
-      <c r="B23" s="89"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="112" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="112" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="81"/>
+    </row>
+    <row r="6" spans="2:9" ht="337.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="83"/>
+      <c r="H7" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="83"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="86"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="86"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="83"/>
+      <c r="H20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="89" t="s">
+        <v>49</v>
+      </c>
       <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="89"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="89"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="89"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="89"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="93"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="93"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="93"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="96"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="93"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="93"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="93"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="93"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="96"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="6"/>
+      <c r="D23" s="90"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A22:D27"/>
-    <mergeCell ref="A28:D32"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="A33:D38"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A9:D10"/>
-    <mergeCell ref="A16:D21"/>
-    <mergeCell ref="A11:D15"/>
+  <mergeCells count="12">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
-  <pageMargins left="0.9055118110236221" right="1.1023622047244095" top="0.35433070866141736" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <hyperlinks>
+    <hyperlink ref="B19:C19" r:id="rId1" display="C:\Repositorio_IWM\Organización\Procesos\Soporte Organizacional\3. Medición, Monitoreo y Control\Medición"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="78.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="86.85546875" style="35" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="35"/>
+    <col min="6" max="6" width="39.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="81"/>
+    </row>
+    <row r="6" spans="2:9" ht="337.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="83"/>
+      <c r="H7" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="46"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="26"/>
+      <c r="C11" s="46"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="83"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="86"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="86"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="83"/>
+      <c r="H20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="111" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="89"/>
+      <c r="D23" s="90"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B19:C19" r:id="rId1" display="C:\Repositorio_IWM\Organización\Procesos\Soporte Organizacional\3. Medición, Monitoreo y Control\Medición"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>